--- a/data/hjh.xlsx
+++ b/data/hjh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zkw42\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec5eed8c1d9fe52b/Documents/Rorschach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2995DDD3-F1EE-4882-9EBB-04C6D311FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2995DDD3-F1EE-4882-9EBB-04C6D311FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2870C2B5-56C5-4383-BE6B-5DB40EE2F8D7}"/>
   <bookViews>
     <workbookView xWindow="7580" yWindow="40" windowWidth="28800" windowHeight="15370" xr2:uid="{6386C27F-904B-4188-B178-108A8F9AA223}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
   <si>
     <t>DQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,10 @@
   </si>
   <si>
     <t>Card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +708,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1105,7 +1109,9 @@
       <c r="G14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>25</v>
       </c>
